--- a/sql/CRUD_Matrix.xlsx
+++ b/sql/CRUD_Matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/43441fd17b9d403b/Documents/MobaXterm/home/Projects/cs4300/final/PMASinfonia/sql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EE46C2E-23D6-4E75-8AC8-D216A02232C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="8_{4EE46C2E-23D6-4E75-8AC8-D216A02232C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09886B89-8FD1-4E7A-B171-F94257ACFBAB}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{9E6705AE-85D2-4102-AA7B-DD7B953989F6}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="10155" windowHeight="8980" xr2:uid="{9E6705AE-85D2-4102-AA7B-DD7B953989F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
   <si>
     <t>Tables</t>
   </si>
@@ -57,9 +57,6 @@
     <t>R</t>
   </si>
   <si>
-    <t>Merchandise Page</t>
-  </si>
-  <si>
     <t>Optional</t>
   </si>
   <si>
@@ -147,41 +144,10 @@
     <t>Comments</t>
   </si>
   <si>
-    <r>
-      <t>CR</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>UD</t>
-    </r>
-  </si>
-  <si>
-    <t>CRUD</t>
-  </si>
-  <si>
     <t>BrotherID (INT)</t>
   </si>
   <si>
     <t>Comment (TEXT)</t>
-  </si>
-  <si>
-    <t>Calendar Page</t>
-  </si>
-  <si>
-    <t>About Us Page</t>
-  </si>
-  <si>
-    <t>History Page</t>
-  </si>
-  <si>
-    <t>Join/Contact Us Page</t>
   </si>
   <si>
     <t>Events, Merch, or About Us</t>
@@ -346,74 +312,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>UD</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RU</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>C</t>
     </r>
     <r>
@@ -460,6 +358,27 @@
       </rPr>
       <t>UD</t>
     </r>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>Calendar</t>
+  </si>
+  <si>
+    <t>About Us Page Mini Calendar</t>
+  </si>
+  <si>
+    <t>Profile(change picture, email, bio)</t>
+  </si>
+  <si>
+    <t>Log In Process (profile verify)</t>
+  </si>
+  <si>
+    <t>Merch Page</t>
   </si>
 </sst>
 </file>
@@ -1013,17 +932,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B46D3137-731C-4C47-9703-C698D905DD5D}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="27.86328125" customWidth="1"/>
+    <col min="1" max="1" width="31.7265625" customWidth="1"/>
     <col min="2" max="2" width="23.2265625" customWidth="1"/>
     <col min="3" max="3" width="34.5" customWidth="1"/>
     <col min="4" max="4" width="17.36328125" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="20.5" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="15.86328125" customWidth="1"/>
     <col min="7" max="7" width="7.953125" customWidth="1"/>
   </cols>
@@ -1042,92 +961,99 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
         <v>74</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>38</v>
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>38</v>
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
       </c>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
       </c>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.75">
@@ -1144,105 +1070,105 @@
         <v>3</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A11" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A12" s="11"/>
       <c r="B12" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>18</v>
-      </c>
       <c r="F12" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A13" s="11"/>
       <c r="B13" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A14" s="11"/>
       <c r="B14" s="9" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="9" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A15" s="11"/>
       <c r="B15" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A16" s="11"/>
       <c r="B16" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -1252,7 +1178,7 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A17" s="11"/>
       <c r="B17" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -1261,128 +1187,128 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A21" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A22" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A23" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A24" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A25" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A26" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>56</v>
-      </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A27" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
